--- a/tabular/extension/srlv/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv/srlv-refseqs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/extension/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/extension/srlv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DE3A9F-59D6-4C44-BBB5-2DE219C75866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04989D82-2E68-7B49-B08F-9B88B7175A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21200" yWindow="4460" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19440" yWindow="4120" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="192">
   <si>
     <t>Accession</t>
   </si>
@@ -590,9 +590,6 @@
     <t>FESC-752</t>
   </si>
   <si>
-    <t>B3</t>
-  </si>
-  <si>
     <t>Place_sampled</t>
   </si>
   <si>
@@ -606,9 +603,6 @@
   </si>
   <si>
     <t>Subgenus</t>
-  </si>
-  <si>
-    <t>A-anc</t>
   </si>
   <si>
     <t>E</t>
@@ -1121,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C23911-5DD3-264B-8B55-BABF418693B7}">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E63" sqref="A1:M77"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1139,13 +1133,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -1163,7 +1157,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>7</v>
@@ -1180,7 +1174,7 @@
         <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
@@ -1211,32 +1205,32 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
-        <v>1953</v>
+        <v>1999</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J3" s="4">
-        <v>9203</v>
+        <v>9023</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
@@ -1248,106 +1242,106 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
-        <v>1976</v>
+        <v>1992</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="J4" s="4">
-        <v>9256</v>
+        <v>9186</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>1976</v>
+      <c r="F5" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="J5" s="4">
-        <v>9256</v>
+        <v>8418</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
-        <v>1952</v>
+        <v>2004</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>496</v>
       </c>
       <c r="J6" s="4">
-        <v>9202</v>
+        <v>9136</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
@@ -1359,32 +1353,32 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <v>1949</v>
+      <c r="F7" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="H7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="J7" s="4">
-        <v>9225</v>
+        <v>8437</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
@@ -1396,106 +1390,106 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
-        <v>1984</v>
+        <v>2009</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="J8" s="4">
-        <v>9203</v>
+        <v>9065</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="4">
-        <v>697</v>
+      <c r="I9" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="J9" s="4">
-        <v>9175</v>
+        <v>9090</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>79</v>
+        <v>4</v>
+      </c>
+      <c r="I10" s="4">
+        <v>697</v>
       </c>
       <c r="J10" s="4">
-        <v>9312</v>
+        <v>9175</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
@@ -1507,349 +1501,347 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H11" s="4">
         <v>3</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="4">
-        <v>9206</v>
+        <v>180</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H12" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="J12" s="4">
-        <v>9185</v>
+        <v>9138</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="4">
-        <v>3</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1150</v>
+      <c r="H13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="J13" s="4">
-        <v>9195</v>
+        <v>9464</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="4">
-        <v>3</v>
+      <c r="H14" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="J14" s="4">
-        <v>9206</v>
+        <v>9464</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="4">
-        <v>3</v>
+      <c r="H15" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="J15" s="4">
-        <v>9192</v>
+        <v>9464</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4">
-        <v>2006</v>
+        <v>1993</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H16" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J16" s="4">
-        <v>9171</v>
+        <v>9172</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4">
-        <v>2006</v>
+        <v>1993</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H17" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="J17" s="4">
-        <v>9166</v>
+        <v>9163</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4">
-        <v>2007</v>
+      <c r="F18" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H18" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="J18" s="4">
-        <v>9194</v>
+        <v>9118</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="4">
-        <v>2006</v>
+      <c r="F19" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H19" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="J19" s="4">
-        <v>9207</v>
+        <v>9171</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4">
@@ -1859,31 +1851,31 @@
         <v>12</v>
       </c>
       <c r="H20" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="J20" s="4">
-        <v>9192</v>
+        <v>9136</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>14</v>
@@ -1899,10 +1891,10 @@
         <v>3</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="J21" s="4">
-        <v>9193</v>
+        <v>9206</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
@@ -1914,20 +1906,20 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4">
-        <v>2017</v>
+        <v>2003</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>12</v>
@@ -1936,10 +1928,10 @@
         <v>3</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="J22" s="4">
-        <v>9166</v>
+        <v>9185</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
@@ -1951,325 +1943,325 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4">
-        <v>2006</v>
+        <v>1953</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="J23" s="4">
-        <v>9185</v>
+        <v>9203</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4">
-        <v>2005</v>
+        <v>1976</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="J24" s="4">
-        <v>9200</v>
+        <v>9256</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4">
-        <v>2006</v>
+        <v>1976</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="J25" s="4">
-        <v>9202</v>
+        <v>9256</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4">
-        <v>2007</v>
+        <v>1952</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="J26" s="4">
-        <v>9191</v>
+        <v>9202</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4">
-        <v>2007</v>
+        <v>1949</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="J27" s="4">
-        <v>9199</v>
+        <v>9225</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="4">
-        <v>2003</v>
+      <c r="F28" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H28" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="J28" s="4">
-        <v>9189</v>
+        <v>9145</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="J29" s="4">
-        <v>9191</v>
+        <v>9307</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="J30" s="4">
-        <v>9201</v>
+        <v>9231</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J31" s="4">
         <v>9206</v>
@@ -2279,222 +2271,222 @@
         <v>11</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="J32" s="4">
-        <v>9203</v>
+        <v>9486</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="J33" s="4">
-        <v>9215</v>
+        <v>9138</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="J34" s="4">
-        <v>9172</v>
+        <v>9258</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="J35" s="4">
-        <v>9204</v>
+        <v>9312</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>109</v>
+      <c r="A36" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="4">
-        <v>2006</v>
+      <c r="F36" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H36" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="J36" s="4">
-        <v>9202</v>
+        <v>9168</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="4">
-        <v>1999</v>
+      <c r="F37" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H37" s="4">
         <v>1</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="J37" s="4">
-        <v>9023</v>
+        <v>9270</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4" t="s">
@@ -2506,32 +2498,32 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="4">
-        <v>2011</v>
+      <c r="F38" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H38" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="J38" s="4">
-        <v>9464</v>
+        <v>9121</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4" t="s">
@@ -2543,32 +2535,32 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="4">
-        <v>2011</v>
+      <c r="F39" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H39" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="J39" s="4">
-        <v>9464</v>
+        <v>9136</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4" t="s">
@@ -2580,32 +2572,32 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="4">
-        <v>2011</v>
+      <c r="F40" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="4">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="J40" s="4">
-        <v>9464</v>
+        <v>9119</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4" t="s">
@@ -2617,57 +2609,57 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H41" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="J41" s="4">
-        <v>9307</v>
+        <v>9131</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>12</v>
@@ -2676,10 +2668,10 @@
         <v>8</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J42" s="4">
-        <v>9231</v>
+        <v>9266</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4" t="s">
@@ -2691,20 +2683,20 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>12</v>
@@ -2713,10 +2705,10 @@
         <v>8</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J43" s="4">
-        <v>9206</v>
+        <v>9257</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4" t="s">
@@ -2728,20 +2720,20 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>12</v>
@@ -2750,10 +2742,10 @@
         <v>8</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="J44" s="4">
-        <v>9486</v>
+        <v>9276</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4" t="s">
@@ -2765,20 +2757,20 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>12</v>
@@ -2787,10 +2779,10 @@
         <v>8</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="J45" s="4">
-        <v>9138</v>
+        <v>9265</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
@@ -2802,32 +2794,32 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H46" s="4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="J46" s="4">
-        <v>9258</v>
+        <v>9164</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4" t="s">
@@ -2839,13 +2831,13 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>13</v>
@@ -2855,16 +2847,16 @@
         <v>2017</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H47" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="J47" s="4">
-        <v>9266</v>
+        <v>8908</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4" t="s">
@@ -2876,32 +2868,32 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="4"/>
-      <c r="F48" s="4">
-        <v>2017</v>
+      <c r="F48" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H48" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="J48" s="4">
-        <v>9257</v>
+        <v>9158</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4" t="s">
@@ -2913,32 +2905,32 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4">
-        <v>2017</v>
+        <v>1989</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H49" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="J49" s="4">
-        <v>9276</v>
+        <v>9135</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4" t="s">
@@ -2950,13 +2942,13 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>13</v>
@@ -2972,10 +2964,10 @@
         <v>8</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J50" s="4">
-        <v>9265</v>
+        <v>9316</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4" t="s">
@@ -2987,16 +2979,16 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4">
@@ -3006,50 +2998,50 @@
         <v>12</v>
       </c>
       <c r="H51" s="4">
-        <v>8</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>77</v>
+        <v>3</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1150</v>
       </c>
       <c r="J51" s="4">
-        <v>9316</v>
+        <v>9195</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H52" s="4">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="J52" s="4">
-        <v>9164</v>
+        <v>6378</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4" t="s">
@@ -3061,548 +3053,550 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>192</v>
+      <c r="H53" s="4">
+        <v>3</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="J53" s="4">
-        <v>9136</v>
+        <v>9206</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>192</v>
+      <c r="H54" s="4">
+        <v>3</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J54" s="4">
-        <v>9193</v>
+        <v>9192</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4">
-        <v>1992</v>
+        <v>2006</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H55" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="J55" s="4">
-        <v>9186</v>
+        <v>9171</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H56" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="J56" s="4">
-        <v>9065</v>
+        <v>9166</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>161</v>
+      <c r="A57" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4">
-        <v>1993</v>
+        <v>2006</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H57" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="J57" s="4">
-        <v>9138</v>
+        <v>9202</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M57" s="4"/>
+      <c r="M57" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4">
-        <v>1993</v>
+        <v>2007</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H58" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="J58" s="4">
-        <v>9172</v>
+        <v>9194</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4">
-        <v>1993</v>
+        <v>2006</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H59" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="J59" s="4">
-        <v>9163</v>
+        <v>9207</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E60" s="4"/>
-      <c r="F60" s="4" t="s">
-        <v>45</v>
+      <c r="F60" s="4">
+        <v>2007</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H60" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="J60" s="4">
-        <v>9118</v>
+        <v>9192</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E61" s="4"/>
-      <c r="F61" s="4" t="s">
-        <v>45</v>
+      <c r="F61" s="4">
+        <v>2006</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H61" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="J61" s="4">
-        <v>9171</v>
+        <v>9193</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E62" s="4"/>
-      <c r="F62" s="4" t="s">
-        <v>45</v>
+      <c r="F62" s="4">
+        <v>2017</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H62" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="J62" s="4">
-        <v>9145</v>
+        <v>9166</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E63" s="4"/>
-      <c r="F63" s="4" t="s">
-        <v>45</v>
+      <c r="F63" s="4">
+        <v>2006</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H63" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J63" s="4">
-        <v>9168</v>
+        <v>9185</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E64" s="4"/>
-      <c r="F64" s="4" t="s">
-        <v>45</v>
+      <c r="F64" s="4">
+        <v>2005</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H64" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="J64" s="4">
-        <v>9270</v>
+        <v>9200</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E65" s="4"/>
-      <c r="F65" s="4" t="s">
-        <v>45</v>
+      <c r="F65" s="4">
+        <v>2006</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H65" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="J65" s="4">
-        <v>9121</v>
+        <v>9202</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E66" s="4"/>
-      <c r="F66" s="4" t="s">
-        <v>45</v>
+      <c r="F66" s="4">
+        <v>2007</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H66" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="J66" s="4">
-        <v>9136</v>
+        <v>9191</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H67" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="J67" s="4">
-        <v>9131</v>
+        <v>9199</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4" t="s">
@@ -3614,143 +3608,143 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E68" s="4"/>
-      <c r="F68" s="4" t="s">
-        <v>45</v>
+      <c r="F68" s="4">
+        <v>2003</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H68" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="J68" s="4">
-        <v>9158</v>
+        <v>9189</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4">
-        <v>1989</v>
+        <v>2006</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H69" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="J69" s="4">
-        <v>9135</v>
+        <v>9191</v>
       </c>
       <c r="K69" s="4"/>
       <c r="L69" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H70" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="J70" s="4">
-        <v>6378</v>
+        <v>9201</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H71" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="J71" s="4">
-        <v>9090</v>
+        <v>9206</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4" t="s">
@@ -3762,217 +3756,217 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H72" s="4">
-        <v>2</v>
-      </c>
-      <c r="I72" s="4">
-        <v>496</v>
+        <v>3</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="J72" s="4">
-        <v>9136</v>
+        <v>9203</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="4" t="s">
-        <v>45</v>
+      <c r="F73" s="4">
+        <v>2006</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>45</v>
+        <v>12</v>
+      </c>
+      <c r="H73" s="4">
+        <v>3</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="J73" s="4">
-        <v>9119</v>
+        <v>9215</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H74" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="J74" s="4">
-        <v>8908</v>
+        <v>9172</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="H75" s="4">
         <v>3</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>179</v>
+        <v>106</v>
+      </c>
+      <c r="J75" s="4">
+        <v>9204</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E76" s="4"/>
-      <c r="F76" s="4" t="s">
-        <v>45</v>
+      <c r="F76" s="4">
+        <v>2020</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="H76" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="J76" s="4">
-        <v>8418</v>
+        <v>9193</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E77" s="4"/>
-      <c r="F77" s="4" t="s">
-        <v>45</v>
+      <c r="F77" s="4">
+        <v>1984</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="H77" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="J77" s="4">
-        <v>8437</v>
+        <v>9203</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="4" t="s">
@@ -3984,8 +3978,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M77">
-    <sortCondition ref="G2:G77"/>
-    <sortCondition ref="H2:H77"/>
+    <sortCondition ref="A2:A77"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
